--- a/Config Files/DIR-12_nodes_config.xlsx
+++ b/Config Files/DIR-12_nodes_config.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CED08E-4E53-47DD-B39D-80F7746AC9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="35">
   <si>
     <t>Field_Name</t>
   </si>
@@ -37,6 +46,21 @@
     <t>Column_JSON_Node</t>
   </si>
   <si>
+    <t>No_of_directors</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>ZMCA_NCA_DIR_12</t>
+  </si>
+  <si>
+    <t>NUM_MD_DIR</t>
+  </si>
+  <si>
+    <t>if this field is greater than zero then have to run below and insert below fields in authorized signatories table</t>
+  </si>
+  <si>
     <t>authorized_signatories</t>
   </si>
   <si>
@@ -58,51 +82,105 @@
     <t>Hidden</t>
   </si>
   <si>
-    <t>Director1</t>
-  </si>
-  <si>
-    <t>Full1_C,TextField1,TextField1_C,Nationality1_N,Father1_C,PresentAdd1_C</t>
-  </si>
-  <si>
-    <t>name,gender,date_of_birth,nationality,father_name,address</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Full1_C</t>
+  </si>
+  <si>
+    <t>Not coming in xml</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>TextField1</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>Birthdated1_D</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Logic-current year-birth year</t>
+  </si>
+  <si>
+    <t>nationality</t>
+  </si>
+  <si>
+    <t>Nationality1_N</t>
+  </si>
+  <si>
+    <t>father_name</t>
+  </si>
+  <si>
+    <t>Father1_C</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>PresentAdd1_C</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
       <sz val="10"/>
+      <color indexed="11"/>
+      <name val="Courier New"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -117,12 +195,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -156,7 +240,7 @@
         <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -165,13 +249,28 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
@@ -213,6 +312,21 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
         <color indexed="10"/>
       </top>
       <bottom style="thin">
@@ -220,58 +334,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="justify" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -280,25 +414,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff9bbb59"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF881280"/>
+      <rgbColor rgb="FF9BBB59"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -500,7 +694,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -518,7 +712,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -547,7 +741,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -572,7 +766,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -597,7 +791,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -622,7 +816,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -647,7 +841,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -672,7 +866,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -697,7 +891,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -722,7 +916,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,7 +941,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -760,9 +954,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -779,7 +979,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -797,7 +997,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -822,7 +1022,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -847,7 +1047,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -872,7 +1072,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -897,7 +1097,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -922,7 +1122,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -947,7 +1147,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -972,7 +1172,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -997,7 +1197,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1022,7 +1222,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,9 +1235,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1051,7 +1257,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1069,7 +1275,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1098,7 +1304,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1123,7 +1329,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,7 +1354,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1379,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1198,7 +1404,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1223,7 +1429,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1248,7 +1454,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1273,7 +1479,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1298,7 +1504,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1311,124 +1517,296 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="28.1719" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="44.8516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.5625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.85156" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="49.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="29.140625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="3">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="4">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="5">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="6"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
-      <c r="A2" t="s" s="6">
+    <row r="2" spans="1:19" ht="39.6" customHeight="1">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" ht="24.65" customHeight="1">
-      <c r="A3" t="s" s="10">
+    <row r="3" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+    </row>
+    <row r="4" spans="1:19" ht="24.6" customHeight="1">
+      <c r="A4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:19" customFormat="1" ht="15">
+      <c r="A5" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="11">
+      <c r="D5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" customFormat="1" ht="15">
+      <c r="A6" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s" s="12">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s" s="13">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s" s="14">
+      <c r="D6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9"/>
+      <c r="G6" s="25" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" ht="40.7" customHeight="1">
-      <c r="A4" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s" s="13">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s" s="12">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s" s="14">
-        <v>17</v>
-      </c>
-      <c r="H4" s="9"/>
+    <row r="7" spans="1:19" customFormat="1" ht="15">
+      <c r="A7" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" customFormat="1" ht="72">
+      <c r="A8" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" customFormat="1" ht="15">
+      <c r="A9" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" customFormat="1" ht="15">
+      <c r="A10" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" customFormat="1" ht="21" customHeight="1">
+      <c r="A11" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/Config Files/DIR-12_nodes_config.xlsx
+++ b/Config Files/DIR-12_nodes_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1CED08E-4E53-47DD-B39D-80F7746AC9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1758C61-DFA4-433C-8674-E1B0281ADD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -73,12 +73,6 @@
     <t>T_ZMCA_NCA_DIR12_M/DATA</t>
   </si>
   <si>
-    <t>DIN,date_of_appointment,date_of_cessation,age,RB_A_C_CD,DESIGNATION,DATE_APP_CD,filing_date</t>
-  </si>
-  <si>
-    <t>din,date_of_appointment,date_of_cessation,age,event,designation_after_event,event_date,filing_date</t>
-  </si>
-  <si>
     <t>Hidden</t>
   </si>
   <si>
@@ -125,6 +119,12 @@
   </si>
   <si>
     <t>PresentAdd1_C</t>
+  </si>
+  <si>
+    <t>DIN,date_of_cessation,age,RB_A_C_CD,DESIGNATION,DATE_APP_CD,filing_date</t>
+  </si>
+  <si>
+    <t>din,date_of_cessation,age,event,designation,event_date,filing_date</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1539,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.4" customHeight="1"/>
@@ -1634,92 +1634,92 @@
         <v>16</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16"/>
     </row>
     <row r="5" spans="1:19" customFormat="1" ht="15">
       <c r="A5" s="27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:19" customFormat="1" ht="15">
       <c r="A6" s="27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:19" customFormat="1" ht="15">
       <c r="A7" s="27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:19" customFormat="1" ht="72">
       <c r="A8" s="27" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
@@ -1729,79 +1729,79 @@
         <v>13</v>
       </c>
       <c r="G8" s="25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="S8" s="26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:19" customFormat="1" ht="15">
       <c r="A9" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:19" customFormat="1" ht="15">
       <c r="A10" s="27" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:19" customFormat="1" ht="21" customHeight="1">
       <c r="A11" s="27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
         <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Config Files/DIR-12_nodes_config.xlsx
+++ b/Config Files/DIR-12_nodes_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mns-admin\Documents\Python\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1758C61-DFA4-433C-8674-E1B0281ADD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222B10E0-8433-4594-B9C0-0C54146CE19B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
     <t>DIN,date_of_cessation,age,RB_A_C_CD,DESIGNATION,DATE_APP_CD,filing_date</t>
   </si>
   <si>
-    <t>din,date_of_cessation,age,event,designation,event_date,filing_date</t>
+    <t>din,date_of_cessation,age,event,designation,date_of_appointment,filing_date</t>
   </si>
 </sst>
 </file>
@@ -1539,7 +1539,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.4" customHeight="1"/>
